--- a/Sheets/PS2.xlsx
+++ b/Sheets/PS2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB77B1-E12E-4AAB-B192-5262876DC026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFBE8B4-0608-43FE-80CE-2A5A5D59F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DB6EFA7-4DF7-4589-9107-07D09DAE2062}"/>
   </bookViews>
@@ -39,24 +39,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Name of the Faculty</t>
-  </si>
-  <si>
-    <t>Title of the Talk</t>
-  </si>
-  <si>
-    <t>Nature (IN/N/R)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Programme </t>
-  </si>
-  <si>
-    <t>Title of the Seminar/Conf/WS</t>
-  </si>
-  <si>
-    <t>Institution &amp; Place</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -229,6 +211,24 @@
   </si>
   <si>
     <t>28.06.2023</t>
+  </si>
+  <si>
+    <t>Name_of_the_Faculty</t>
+  </si>
+  <si>
+    <t>Title_of_the_Talk</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Title_of_the_Seminar</t>
+  </si>
+  <si>
+    <t>Institution_and_Place</t>
+  </si>
+  <si>
+    <t>Type_of_Programme</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-yy"/>
-    <numFmt numFmtId="167" formatCode="[$-14009]d\.m\.yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]d\.m\.yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,19 +398,19 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,6 +428,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,8 +761,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +771,7 @@
     <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22" style="21" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="21.5546875" customWidth="1"/>
@@ -766,363 +782,363 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
